--- a/biology/Médecine/International_Prevention_Research_Institute/International_Prevention_Research_Institute.xlsx
+++ b/biology/Médecine/International_Prevention_Research_Institute/International_Prevention_Research_Institute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’International Prevention Research Institute - iPRI est un institut de recherche indépendant créé par un groupe de chercheurs. La mission d’iPRI consiste à réaliser différents travaux visant à l’amélioration de la santé des populations à travers le monde, en déterminant les principaux problèmes de détection et de prévention des maladies[1],[2].
+L’International Prevention Research Institute - iPRI est un institut de recherche indépendant créé par un groupe de chercheurs. La mission d’iPRI consiste à réaliser différents travaux visant à l’amélioration de la santé des populations à travers le monde, en déterminant les principaux problèmes de détection et de prévention des maladies,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Principaux domaines de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux de recherche d’iPRI sont principalement axés sur la prévention des  maladies chroniques. Ces travaux sont réalisés en collaboration avec des partenaires internationaux. Une des priorités de l’Institut est l’éducation et la formation de chercheurs issus de pays à faibles et moyens revenus. Les méthodes utilisées sont les suivantes :
 analyses et méta-analyses
@@ -523,7 +537,7 @@
 d’effectuer une évaluation des risques sanitaires
 de réaliser des revues systématiques
 d’élaborer des consensus et d’apporter un soutien technique aux autorités
-iPRI est impliqué dans de nombreux projets internationaux de recherche académique, tels que le BBMRI[3], European Code against Cancer[4], UV-France and EuroSun[5], ITFoM[6].
+iPRI est impliqué dans de nombreux projets internationaux de recherche académique, tels que le BBMRI, European Code against Cancer, UV-France and EuroSun, ITFoM.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Éducation et formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les pays à faibles et moyens revenus, l’acquisition de compétences constitue un outil important pour l’aide au développement. iPRI élabore et organise des programmes de formation pour enseigner les bases de l’épidémiologie et de la biostatistique des  maladies chroniques[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les pays à faibles et moyens revenus, l’acquisition de compétences constitue un outil important pour l’aide au développement. iPRI élabore et organise des programmes de formation pour enseigner les bases de l’épidémiologie et de la biostatistique des  maladies chroniques.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">iPRI a vu le jour en 2009 sur l’initiative commune de plusieurs scientifiques de renommée internationale[8]. Le Président d’iPRI est  Peter Boyle, ancien Directeur du Centre International de Recherche sur le Cancer. Par la suite, les chercheurs Senior suivants ont rejoint ou se sont affiliés à l’Institut : Philippe Autier, Mathieu Boniol, Pierre Hainaut, Maria Paula Curado, Carlo La Vecchia, Tongzhang Zheng, Patrick Mullie, Lars Vatten, Clement Adebamowo, Otis Brawley, Mireille Guigaz.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iPRI a vu le jour en 2009 sur l’initiative commune de plusieurs scientifiques de renommée internationale. Le Président d’iPRI est  Peter Boyle, ancien Directeur du Centre International de Recherche sur le Cancer. Par la suite, les chercheurs Senior suivants ont rejoint ou se sont affiliés à l’Institut : Philippe Autier, Mathieu Boniol, Pierre Hainaut, Maria Paula Curado, Carlo La Vecchia, Tongzhang Zheng, Patrick Mullie, Lars Vatten, Clement Adebamowo, Otis Brawley, Mireille Guigaz.
 </t>
         </is>
       </c>
